--- a/dbDocument.xlsx
+++ b/dbDocument.xlsx
@@ -10,9 +10,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
